--- a/artfynd/A 28854-2019.xlsx
+++ b/artfynd/A 28854-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96163514</v>
+        <v>96163645</v>
       </c>
       <c r="B2" t="n">
-        <v>96251</v>
+        <v>90174</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,40 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219790</v>
+        <v>2014</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536083.0520122559</v>
+        <v>535794.7671042735</v>
       </c>
       <c r="R2" t="n">
-        <v>6941177.258466261</v>
+        <v>6941517.7339705</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -782,19 +781,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96164180</v>
+        <v>96896753</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -827,11 +826,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -840,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536163.8848496218</v>
+        <v>535643.5895857058</v>
       </c>
       <c r="R3" t="n">
-        <v>6941040.412225734</v>
+        <v>6941850.920781191</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,7 +865,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -880,7 +875,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -890,7 +885,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>En blommande stängel</t>
+          <t>Ett 20-tal</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96161774</v>
+        <v>96896409</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,35 +928,36 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535929.4059637971</v>
+        <v>535671.8968399311</v>
       </c>
       <c r="R4" t="n">
-        <v>6941308.70448854</v>
+        <v>6941748.987904956</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -988,7 +984,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -998,7 +994,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1030,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96164080</v>
+        <v>96896206</v>
       </c>
       <c r="B5" t="n">
         <v>78569</v>
@@ -1071,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536115.7302219088</v>
+        <v>535702.2878445054</v>
       </c>
       <c r="R5" t="n">
-        <v>6941056.930528938</v>
+        <v>6941710.629987114</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1101,7 +1097,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1107,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1143,10 +1139,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96160810</v>
+        <v>96895920</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,21 +1155,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535982.4891834018</v>
+        <v>535737.538598937</v>
       </c>
       <c r="R6" t="n">
-        <v>6941305.135170996</v>
+        <v>6941692.127799309</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,7 +1210,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1220,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1256,10 +1252,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96160706</v>
+        <v>96895700</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>96367</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,39 +1264,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536016.0662144478</v>
+        <v>535762.2727600256</v>
       </c>
       <c r="R7" t="n">
-        <v>6941271.415466338</v>
+        <v>6941665.222461059</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1327,7 +1324,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1337,7 +1334,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1357,22 +1354,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96162595</v>
+        <v>96896026</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,39 +1378,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535919.1446882642</v>
+        <v>535720.0044003255</v>
       </c>
       <c r="R8" t="n">
-        <v>6941319.186980312</v>
+        <v>6941735.690159449</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1440,7 +1438,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1450,7 +1448,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1482,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96163932</v>
+        <v>96895289</v>
       </c>
       <c r="B9" t="n">
-        <v>78527</v>
+        <v>89673</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1492,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229497</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1521,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536111.9243110085</v>
+        <v>535811.8404482991</v>
       </c>
       <c r="R9" t="n">
-        <v>6941109.861557821</v>
+        <v>6941516.997344716</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1553,7 +1551,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1563,7 +1561,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1595,10 +1593,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96160387</v>
+        <v>96896871</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,37 +1609,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536035.6368852875</v>
+        <v>535630.4046247649</v>
       </c>
       <c r="R10" t="n">
-        <v>6941210.827956873</v>
+        <v>6941790.449936167</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1668,7 +1664,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1678,17 +1674,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1715,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96162891</v>
+        <v>96896331</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>78596</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,36 +1722,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>535945.8078461308</v>
+        <v>535684.8833552796</v>
       </c>
       <c r="R11" t="n">
-        <v>6941284.931177175</v>
+        <v>6941699.389427968</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1787,7 +1777,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1797,7 +1787,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1829,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96160777</v>
+        <v>96896607</v>
       </c>
       <c r="B12" t="n">
-        <v>98431</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,21 +1835,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535982.4891834018</v>
+        <v>535612.0985988706</v>
       </c>
       <c r="R12" t="n">
-        <v>6941305.135170996</v>
+        <v>6941820.187457249</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,7 +1891,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1911,7 +1901,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1943,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96163959</v>
+        <v>96895530</v>
       </c>
       <c r="B13" t="n">
-        <v>98431</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,21 +1949,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1985,10 +1975,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536116.1406388403</v>
+        <v>535757.3492012424</v>
       </c>
       <c r="R13" t="n">
-        <v>6941103.919357795</v>
+        <v>6941651.35282445</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2015,7 +2005,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2025,7 +2015,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2057,10 +2047,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96163618</v>
+        <v>96896222</v>
       </c>
       <c r="B14" t="n">
-        <v>89777</v>
+        <v>98520</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2069,34 +2059,45 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6040186</v>
+        <v>222498</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536084.3004741131</v>
+        <v>535702.2878445054</v>
       </c>
       <c r="R14" t="n">
-        <v>6941147.331796096</v>
+        <v>6941710.629987114</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2123,7 +2124,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2133,7 +2134,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2165,10 +2166,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96160088</v>
+        <v>96896327</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2181,21 +2182,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2206,10 +2207,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536072.2534865013</v>
+        <v>535684.8833552796</v>
       </c>
       <c r="R15" t="n">
-        <v>6941152.267455158</v>
+        <v>6941699.389427968</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2246,7 +2247,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2278,10 +2279,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96162161</v>
+        <v>96895469</v>
       </c>
       <c r="B16" t="n">
-        <v>89673</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2290,25 +2291,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2319,10 +2320,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>535964.6322701246</v>
+        <v>535765.0768652639</v>
       </c>
       <c r="R16" t="n">
-        <v>6941292.965684675</v>
+        <v>6941576.365647462</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2349,7 +2350,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2359,7 +2360,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2391,10 +2392,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96163930</v>
+        <v>96896616</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>90319</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2403,25 +2404,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2432,10 +2433,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536111.9243110085</v>
+        <v>535612.0985988706</v>
       </c>
       <c r="R17" t="n">
-        <v>6941109.861557821</v>
+        <v>6941820.187457249</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2472,7 +2473,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2504,10 +2505,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96163167</v>
+        <v>96896094</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2516,44 +2517,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535985.4004365732</v>
+        <v>535711.5206880636</v>
       </c>
       <c r="R18" t="n">
-        <v>6941249.433801402</v>
+        <v>6941709.808421293</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2590,17 +2586,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>En blomstängel</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2627,10 +2618,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96164212</v>
+        <v>96896816</v>
       </c>
       <c r="B19" t="n">
-        <v>98431</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2639,25 +2630,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2669,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536163.8848496218</v>
+        <v>535634.8083733631</v>
       </c>
       <c r="R19" t="n">
-        <v>6941040.412225734</v>
+        <v>6941852.668394504</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2699,7 +2690,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2709,12 +2700,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ett 40-tal</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2741,7 +2737,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96160797</v>
+        <v>96895296</v>
       </c>
       <c r="B20" t="n">
         <v>95519</v>
@@ -2783,10 +2779,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>535988.7549482047</v>
+        <v>535811.8404482991</v>
       </c>
       <c r="R20" t="n">
-        <v>6941280.330766861</v>
+        <v>6941516.997344716</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,7 +2809,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2823,7 +2819,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2843,22 +2839,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96164128</v>
+        <v>96895703</v>
       </c>
       <c r="B21" t="n">
-        <v>98431</v>
+        <v>98520</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2871,21 +2867,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2897,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536154.780675855</v>
+        <v>535762.2727600256</v>
       </c>
       <c r="R21" t="n">
-        <v>6941029.257578604</v>
+        <v>6941665.222461059</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2927,7 +2923,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2937,7 +2933,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2969,10 +2965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96163645</v>
+        <v>96896803</v>
       </c>
       <c r="B22" t="n">
-        <v>90174</v>
+        <v>98520</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2981,39 +2977,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2014</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>535794.7671042735</v>
+        <v>535631.5804915702</v>
       </c>
       <c r="R22" t="n">
-        <v>6941517.7339705</v>
+        <v>6941852.633671833</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3040,7 +3037,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3050,7 +3047,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3070,22 +3067,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>96164757</v>
+        <v>96895975</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3094,39 +3091,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536254.1587735906</v>
+        <v>535720.0044003255</v>
       </c>
       <c r="R23" t="n">
-        <v>6940926.69815051</v>
+        <v>6941735.690159449</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3153,7 +3151,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3163,7 +3161,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3195,10 +3193,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>96161061</v>
+        <v>96896411</v>
       </c>
       <c r="B24" t="n">
-        <v>90653</v>
+        <v>96367</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3211,35 +3209,36 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>219874</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>535961.1739019239</v>
+        <v>535671.8968399311</v>
       </c>
       <c r="R24" t="n">
-        <v>6941314.11572296</v>
+        <v>6941748.987904956</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3266,7 +3265,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3276,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3308,7 +3307,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96160116</v>
+        <v>96895854</v>
       </c>
       <c r="B25" t="n">
         <v>90653</v>
@@ -3349,10 +3348,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>536073.0756501338</v>
+        <v>535733.8196086172</v>
       </c>
       <c r="R25" t="n">
-        <v>6941161.488809803</v>
+        <v>6941694.850949178</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3379,7 +3378,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3389,7 +3388,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3421,10 +3420,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>96164199</v>
+        <v>96895682</v>
       </c>
       <c r="B26" t="n">
-        <v>96660</v>
+        <v>96334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3433,28 +3432,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219880</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3463,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536163.8848496218</v>
+        <v>535760.0962419912</v>
       </c>
       <c r="R26" t="n">
-        <v>6941040.412225734</v>
+        <v>6941653.224678343</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3493,7 +3496,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3503,7 +3506,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3535,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>96163457</v>
+        <v>99601358</v>
       </c>
       <c r="B27" t="n">
-        <v>77177</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3551,24 +3554,33 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3576,10 +3588,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536039.2110463755</v>
+        <v>535477.1106654062</v>
       </c>
       <c r="R27" t="n">
-        <v>6941179.084410001</v>
+        <v>6942065.572011811</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3606,7 +3618,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3616,7 +3628,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3636,22 +3648,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>96164679</v>
+        <v>99601486</v>
       </c>
       <c r="B28" t="n">
-        <v>99398</v>
+        <v>78596</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3664,36 +3676,44 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221235</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536238.947428687</v>
+        <v>535554.9292391088</v>
       </c>
       <c r="R28" t="n">
-        <v>6940925.610457446</v>
+        <v>6941990.424318277</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3720,7 +3740,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3730,7 +3750,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3750,22 +3770,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>96160861</v>
+        <v>99601632</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3774,39 +3794,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>535982.4441686178</v>
+        <v>535559.1286306238</v>
       </c>
       <c r="R29" t="n">
-        <v>6941309.28007358</v>
+        <v>6941985.864365009</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3833,7 +3863,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3843,7 +3873,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3863,22 +3893,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>96160323</v>
+        <v>99601392</v>
       </c>
       <c r="B30" t="n">
-        <v>103265</v>
+        <v>78569</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3887,40 +3917,48 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536046.024125677</v>
+        <v>535481.3246514731</v>
       </c>
       <c r="R30" t="n">
-        <v>6941188.831465186</v>
+        <v>6942059.630745366</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3947,7 +3985,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3957,7 +3995,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3977,22 +4015,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>96163205</v>
+        <v>99601482</v>
       </c>
       <c r="B31" t="n">
-        <v>78569</v>
+        <v>78533</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4001,28 +4039,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>229748</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4030,10 +4077,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>535975.1160883282</v>
+        <v>535554.9292391088</v>
       </c>
       <c r="R31" t="n">
-        <v>6941346.969379576</v>
+        <v>6941990.424318277</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4060,22 +4107,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4090,22 +4137,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>96161100</v>
+        <v>99601665</v>
       </c>
       <c r="B32" t="n">
-        <v>77259</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4118,24 +4165,33 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4143,10 +4199,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>535993.9482890082</v>
+        <v>535618.6045973595</v>
       </c>
       <c r="R32" t="n">
-        <v>6941269.332695567</v>
+        <v>6941858.480904269</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4173,22 +4229,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4203,22 +4259,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96163111</v>
+        <v>99601777</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4231,24 +4287,33 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4256,10 +4321,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>535996.9624477824</v>
+        <v>535641.7054448389</v>
       </c>
       <c r="R33" t="n">
-        <v>6941331.546446392</v>
+        <v>6941854.584686224</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4286,7 +4351,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4296,7 +4361,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4316,22 +4381,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>96162605</v>
+        <v>99601671</v>
       </c>
       <c r="B34" t="n">
-        <v>90653</v>
+        <v>89673</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4340,28 +4405,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4369,10 +4443,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>535919.2095953</v>
+        <v>535634.6993956352</v>
       </c>
       <c r="R34" t="n">
-        <v>6941313.199915322</v>
+        <v>6941862.798696758</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4399,22 +4473,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4429,22 +4503,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>96160637</v>
+        <v>99601478</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>78503</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4453,28 +4527,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4482,10 +4565,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>535993.1259363722</v>
+        <v>535526.530104674</v>
       </c>
       <c r="R35" t="n">
-        <v>6941260.111662458</v>
+        <v>6942015.447163099</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4512,7 +4595,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4522,7 +4605,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4542,22 +4625,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>96161019</v>
+        <v>100603912</v>
       </c>
       <c r="B36" t="n">
-        <v>90653</v>
+        <v>101120</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4570,35 +4653,45 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>222002</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>535971.3553260259</v>
+        <v>535643.5251738867</v>
       </c>
       <c r="R36" t="n">
-        <v>6941311.002058692</v>
+        <v>6941856.906875815</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4625,7 +4718,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4635,7 +4728,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4655,22 +4748,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>96163751</v>
+        <v>100603557</v>
       </c>
       <c r="B37" t="n">
-        <v>98431</v>
+        <v>78569</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4679,40 +4772,48 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536118.0207031951</v>
+        <v>535487.2991812009</v>
       </c>
       <c r="R37" t="n">
-        <v>6941100.715455247</v>
+        <v>6942061.5367224</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4739,7 +4840,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4749,7 +4850,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4769,22 +4870,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>96163593</v>
+        <v>100603667</v>
       </c>
       <c r="B38" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4793,28 +4894,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4822,10 +4932,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536084.3004741131</v>
+        <v>535490.0854962033</v>
       </c>
       <c r="R38" t="n">
-        <v>6941147.331796096</v>
+        <v>6942059.724604088</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4852,7 +4962,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4862,7 +4972,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4882,22 +4992,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>96160818</v>
+        <v>100603291</v>
       </c>
       <c r="B39" t="n">
-        <v>99398</v>
+        <v>101120</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4910,24 +5020,33 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221235</v>
+        <v>222002</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -4936,10 +5055,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536003.402643032</v>
+        <v>535609.5347657365</v>
       </c>
       <c r="R39" t="n">
-        <v>6941248.247549258</v>
+        <v>6941801.278247376</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4966,7 +5085,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4976,7 +5095,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4996,22 +5115,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>96162166</v>
+        <v>100603307</v>
       </c>
       <c r="B40" t="n">
-        <v>95519</v>
+        <v>101680</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5024,16 +5143,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221945</v>
+        <v>222412</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5041,7 +5160,16 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5050,10 +5178,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>535960.6863762024</v>
+        <v>535616.4963210796</v>
       </c>
       <c r="R40" t="n">
-        <v>6941274.038162152</v>
+        <v>6941797.208323192</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5080,22 +5208,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5110,22 +5238,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Rebecka Andersson</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>96161157</v>
+        <v>100603721</v>
       </c>
       <c r="B41" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5134,39 +5262,49 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>535935.3716166909</v>
+        <v>535501.2159817294</v>
       </c>
       <c r="R41" t="n">
-        <v>6941311.532777939</v>
+        <v>6942053.857467398</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5193,7 +5331,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5203,7 +5341,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5223,22 +5361,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96160107</v>
+        <v>100603906</v>
       </c>
       <c r="B42" t="n">
-        <v>77259</v>
+        <v>96334</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5247,39 +5385,49 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536082.3753292162</v>
+        <v>535644.9234148662</v>
       </c>
       <c r="R42" t="n">
-        <v>6941154.680767823</v>
+        <v>6941855.540356078</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5306,7 +5454,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5316,7 +5464,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5336,22 +5484,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Henrik Ekvall</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>96163824</v>
+        <v>96163514</v>
       </c>
       <c r="B43" t="n">
-        <v>85177</v>
+        <v>96251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5360,41 +5508,40 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>445</v>
+        <v>219790</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536115.1221831418</v>
+        <v>536083.0520122559</v>
       </c>
       <c r="R43" t="n">
-        <v>6941155.037536135</v>
+        <v>6941177.258466261</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5445,7 +5592,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5464,10 +5610,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>96183993</v>
+        <v>96164180</v>
       </c>
       <c r="B44" t="n">
-        <v>99398</v>
+        <v>96334</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5476,28 +5622,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
@@ -5506,10 +5656,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536142.3984466973</v>
+        <v>536163.8848496218</v>
       </c>
       <c r="R44" t="n">
-        <v>6940980.294496668</v>
+        <v>6941040.412225734</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5536,7 +5686,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5546,12 +5696,17 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>En blommande stängel</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5566,22 +5721,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Jessica  Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Jessica  Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>96896753</v>
+        <v>96161774</v>
       </c>
       <c r="B45" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5590,40 +5745,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>535643.5895857058</v>
+        <v>535929.4059637971</v>
       </c>
       <c r="R45" t="n">
-        <v>6941850.920781191</v>
+        <v>6941308.70448854</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5650,7 +5804,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5660,17 +5814,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ett 20-tal</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5697,10 +5846,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>96896409</v>
+        <v>96164080</v>
       </c>
       <c r="B46" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5709,40 +5858,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>535671.8968399311</v>
+        <v>536115.7302219088</v>
       </c>
       <c r="R46" t="n">
-        <v>6941748.987904956</v>
+        <v>6941056.930528938</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5769,7 +5917,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5779,7 +5927,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -5811,10 +5959,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>96896206</v>
+        <v>96160810</v>
       </c>
       <c r="B47" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5827,21 +5975,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5852,10 +6000,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>535702.2878445054</v>
+        <v>535982.4891834018</v>
       </c>
       <c r="R47" t="n">
-        <v>6941710.629987114</v>
+        <v>6941305.135170996</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5882,7 +6030,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5892,7 +6040,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5924,10 +6072,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>96895920</v>
+        <v>96160706</v>
       </c>
       <c r="B48" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5940,21 +6088,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5965,10 +6113,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>535737.538598937</v>
+        <v>536016.0662144478</v>
       </c>
       <c r="R48" t="n">
-        <v>6941692.127799309</v>
+        <v>6941271.415466338</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5995,7 +6143,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6005,7 +6153,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6025,22 +6173,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>96895700</v>
+        <v>96162595</v>
       </c>
       <c r="B49" t="n">
-        <v>96367</v>
+        <v>90653</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6053,36 +6201,35 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>219874</v>
+        <v>4364</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>535762.2727600256</v>
+        <v>535919.1446882642</v>
       </c>
       <c r="R49" t="n">
-        <v>6941665.222461059</v>
+        <v>6941319.186980312</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6109,7 +6256,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6119,7 +6266,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6151,10 +6298,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>96896026</v>
+        <v>96163932</v>
       </c>
       <c r="B50" t="n">
-        <v>94121</v>
+        <v>78527</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6163,40 +6310,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>229497</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>535720.0044003255</v>
+        <v>536111.9243110085</v>
       </c>
       <c r="R50" t="n">
-        <v>6941735.690159449</v>
+        <v>6941109.861557821</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6223,7 +6369,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6233,7 +6379,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6265,10 +6411,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>96895289</v>
+        <v>96160387</v>
       </c>
       <c r="B51" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6281,35 +6427,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>535811.8404482991</v>
+        <v>536035.6368852875</v>
       </c>
       <c r="R51" t="n">
-        <v>6941516.997344716</v>
+        <v>6941210.827956873</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6336,7 +6484,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6346,12 +6494,17 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6378,10 +6531,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96896871</v>
+        <v>96162891</v>
       </c>
       <c r="B52" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6390,39 +6543,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>535630.4046247649</v>
+        <v>535945.8078461308</v>
       </c>
       <c r="R52" t="n">
-        <v>6941790.449936167</v>
+        <v>6941284.931177175</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6449,7 +6603,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6459,7 +6613,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6491,10 +6645,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>96896331</v>
+        <v>96160777</v>
       </c>
       <c r="B53" t="n">
-        <v>78596</v>
+        <v>98431</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6507,35 +6661,36 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>535684.8833552796</v>
+        <v>535982.4891834018</v>
       </c>
       <c r="R53" t="n">
-        <v>6941699.389427968</v>
+        <v>6941305.135170996</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6562,7 +6717,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6572,7 +6727,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6604,10 +6759,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96896607</v>
+        <v>96163959</v>
       </c>
       <c r="B54" t="n">
-        <v>98520</v>
+        <v>98431</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6620,21 +6775,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6646,10 +6801,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>535612.0985988706</v>
+        <v>536116.1406388403</v>
       </c>
       <c r="R54" t="n">
-        <v>6941820.187457249</v>
+        <v>6941103.919357795</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6676,7 +6831,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6686,7 +6841,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6718,10 +6873,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>96895530</v>
+        <v>96163618</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>89777</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6730,40 +6885,34 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>535757.3492012424</v>
+        <v>536084.3004741131</v>
       </c>
       <c r="R55" t="n">
-        <v>6941651.35282445</v>
+        <v>6941147.331796096</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6790,7 +6939,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6800,7 +6949,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6832,10 +6981,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>96896222</v>
+        <v>96160088</v>
       </c>
       <c r="B56" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6844,45 +6993,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>535702.2878445054</v>
+        <v>536072.2534865013</v>
       </c>
       <c r="R56" t="n">
-        <v>6941710.629987114</v>
+        <v>6941152.267455158</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6909,7 +7052,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6919,7 +7062,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6951,10 +7094,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>96896327</v>
+        <v>96162161</v>
       </c>
       <c r="B57" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6967,21 +7110,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6992,10 +7135,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>535684.8833552796</v>
+        <v>535964.6322701246</v>
       </c>
       <c r="R57" t="n">
-        <v>6941699.389427968</v>
+        <v>6941292.965684675</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7022,7 +7165,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7032,7 +7175,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7064,10 +7207,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>96895469</v>
+        <v>96163930</v>
       </c>
       <c r="B58" t="n">
-        <v>90653</v>
+        <v>78569</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7076,25 +7219,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7105,10 +7248,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>535765.0768652639</v>
+        <v>536111.9243110085</v>
       </c>
       <c r="R58" t="n">
-        <v>6941576.365647462</v>
+        <v>6941109.861557821</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7135,7 +7278,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7145,7 +7288,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7177,10 +7320,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>96896616</v>
+        <v>96163167</v>
       </c>
       <c r="B59" t="n">
-        <v>90319</v>
+        <v>96334</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7189,39 +7332,44 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>535612.0985988706</v>
+        <v>535985.4004365732</v>
       </c>
       <c r="R59" t="n">
-        <v>6941820.187457249</v>
+        <v>6941249.433801402</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7248,7 +7396,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7258,12 +7406,17 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>En blomstängel</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7290,10 +7443,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>96896094</v>
+        <v>96164212</v>
       </c>
       <c r="B60" t="n">
-        <v>78569</v>
+        <v>98431</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7302,39 +7455,40 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535711.5206880636</v>
+        <v>536163.8848496218</v>
       </c>
       <c r="R60" t="n">
-        <v>6941709.808421293</v>
+        <v>6941040.412225734</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7361,7 +7515,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7371,7 +7525,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7403,10 +7557,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>96896816</v>
+        <v>96160797</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>95519</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7415,25 +7569,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7445,10 +7599,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535634.8083733631</v>
+        <v>535988.7549482047</v>
       </c>
       <c r="R61" t="n">
-        <v>6941852.668394504</v>
+        <v>6941280.330766861</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7475,7 +7629,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7485,17 +7639,12 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Ett 40-tal</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7510,22 +7659,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>96895296</v>
+        <v>96164128</v>
       </c>
       <c r="B62" t="n">
-        <v>95519</v>
+        <v>98431</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7538,16 +7687,16 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221945</v>
+        <v>222771</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7564,10 +7713,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>535811.8404482991</v>
+        <v>536154.780675855</v>
       </c>
       <c r="R62" t="n">
-        <v>6941516.997344716</v>
+        <v>6941029.257578604</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7594,7 +7743,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7604,7 +7753,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7636,10 +7785,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>96895703</v>
+        <v>96164757</v>
       </c>
       <c r="B63" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7648,40 +7797,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>535762.2727600256</v>
+        <v>536254.1587735906</v>
       </c>
       <c r="R63" t="n">
-        <v>6941665.222461059</v>
+        <v>6940926.69815051</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7708,7 +7856,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7718,7 +7866,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -7750,10 +7898,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>96896803</v>
+        <v>96161061</v>
       </c>
       <c r="B64" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7766,36 +7914,35 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>535631.5804915702</v>
+        <v>535961.1739019239</v>
       </c>
       <c r="R64" t="n">
-        <v>6941852.633671833</v>
+        <v>6941314.11572296</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7822,7 +7969,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7832,7 +7979,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7864,10 +8011,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>96895975</v>
+        <v>96160116</v>
       </c>
       <c r="B65" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7880,36 +8027,35 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>535720.0044003255</v>
+        <v>536073.0756501338</v>
       </c>
       <c r="R65" t="n">
-        <v>6941735.690159449</v>
+        <v>6941161.488809803</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7936,7 +8082,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7946,7 +8092,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7978,10 +8124,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>96896411</v>
+        <v>96164199</v>
       </c>
       <c r="B66" t="n">
-        <v>96367</v>
+        <v>96660</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7994,21 +8140,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>219874</v>
+        <v>219880</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8020,10 +8166,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>535671.8968399311</v>
+        <v>536163.8848496218</v>
       </c>
       <c r="R66" t="n">
-        <v>6941748.987904956</v>
+        <v>6941040.412225734</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8050,7 +8196,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8060,7 +8206,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8092,10 +8238,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>96895854</v>
+        <v>96163457</v>
       </c>
       <c r="B67" t="n">
-        <v>90653</v>
+        <v>77177</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8104,25 +8250,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8133,10 +8279,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>535733.8196086172</v>
+        <v>536039.2110463755</v>
       </c>
       <c r="R67" t="n">
-        <v>6941694.850949178</v>
+        <v>6941179.084410001</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8163,7 +8309,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8173,7 +8319,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8205,10 +8351,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>96895682</v>
+        <v>96164679</v>
       </c>
       <c r="B68" t="n">
-        <v>96334</v>
+        <v>99398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8217,32 +8363,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
@@ -8251,10 +8393,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>535760.0962419912</v>
+        <v>536238.947428687</v>
       </c>
       <c r="R68" t="n">
-        <v>6941653.224678343</v>
+        <v>6940925.610457446</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8281,7 +8423,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8291,7 +8433,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8323,10 +8465,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>97022801</v>
+        <v>96160861</v>
       </c>
       <c r="B69" t="n">
-        <v>90319</v>
+        <v>78569</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8335,41 +8477,42 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>V om Holkåsen, flygrakan, Mpd</t>
+          <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>536205.2003063171</v>
+        <v>535982.4441686178</v>
       </c>
       <c r="R69" t="n">
-        <v>6940932.151351886</v>
+        <v>6941309.28007358</v>
       </c>
       <c r="S69" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8393,7 +8536,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8403,7 +8546,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8419,31 +8562,26 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>gammal kalktallskog, rikörtsstråk</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>99602968</v>
+        <v>96160323</v>
       </c>
       <c r="B70" t="n">
-        <v>78596</v>
+        <v>103265</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8456,44 +8594,36 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6462</v>
+        <v>221144</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>536206.0271961263</v>
+        <v>536046.024125677</v>
       </c>
       <c r="R70" t="n">
-        <v>6940940.912759054</v>
+        <v>6941188.831465186</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8520,7 +8650,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8530,7 +8660,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8550,22 +8680,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>99602261</v>
+        <v>96163205</v>
       </c>
       <c r="B71" t="n">
-        <v>94121</v>
+        <v>78569</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8578,45 +8708,35 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>535944.843523746</v>
+        <v>535975.1160883282</v>
       </c>
       <c r="R71" t="n">
-        <v>6941373.815714556</v>
+        <v>6941346.969379576</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8643,22 +8763,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8673,22 +8793,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>99602972</v>
+        <v>96161100</v>
       </c>
       <c r="B72" t="n">
-        <v>78569</v>
+        <v>77259</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8701,33 +8821,24 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -8735,10 +8846,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>536200.0963181069</v>
+        <v>535993.9482890082</v>
       </c>
       <c r="R72" t="n">
-        <v>6940934.859499535</v>
+        <v>6941269.332695567</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8765,22 +8876,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8795,19 +8906,19 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>99601358</v>
+        <v>96163111</v>
       </c>
       <c r="B73" t="n">
         <v>78569</v>
@@ -8840,16 +8951,7 @@
           <t>(L.) Hoffm.</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8857,10 +8959,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>535477.1106654062</v>
+        <v>535996.9624477824</v>
       </c>
       <c r="R73" t="n">
-        <v>6942065.572011811</v>
+        <v>6941331.546446392</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8887,7 +8989,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8897,7 +8999,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -8917,22 +9019,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>99601486</v>
+        <v>96162605</v>
       </c>
       <c r="B74" t="n">
-        <v>78596</v>
+        <v>90653</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8945,33 +9047,24 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6462</v>
+        <v>4364</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -8979,10 +9072,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>535554.9292391088</v>
+        <v>535919.2095953</v>
       </c>
       <c r="R74" t="n">
-        <v>6941990.424318277</v>
+        <v>6941313.199915322</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9009,22 +9102,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9039,22 +9132,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>99601632</v>
+        <v>96160637</v>
       </c>
       <c r="B75" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9063,49 +9156,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>535559.1286306238</v>
+        <v>535993.1259363722</v>
       </c>
       <c r="R75" t="n">
-        <v>6941985.864365009</v>
+        <v>6941260.111662458</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9132,7 +9215,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9142,7 +9225,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -9162,22 +9245,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>99601392</v>
+        <v>96161019</v>
       </c>
       <c r="B76" t="n">
-        <v>78569</v>
+        <v>90653</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9186,37 +9269,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9224,10 +9298,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>535481.3246514731</v>
+        <v>535971.3553260259</v>
       </c>
       <c r="R76" t="n">
-        <v>6942059.630745366</v>
+        <v>6941311.002058692</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9254,7 +9328,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9264,7 +9338,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9284,22 +9358,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>99601482</v>
+        <v>96163751</v>
       </c>
       <c r="B77" t="n">
-        <v>78533</v>
+        <v>98431</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9312,44 +9386,36 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>229748</v>
+        <v>222771</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>535554.9292391088</v>
+        <v>536118.0207031951</v>
       </c>
       <c r="R77" t="n">
-        <v>6941990.424318277</v>
+        <v>6941100.715455247</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9376,7 +9442,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9386,7 +9452,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9406,22 +9472,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>99602981</v>
+        <v>96163593</v>
       </c>
       <c r="B78" t="n">
-        <v>78527</v>
+        <v>89832</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9430,37 +9496,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>229497</v>
+        <v>1209</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9468,10 +9525,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>536202.8386812385</v>
+        <v>536084.3004741131</v>
       </c>
       <c r="R78" t="n">
-        <v>6940937.192715558</v>
+        <v>6941147.331796096</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9498,7 +9555,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9508,7 +9565,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9528,22 +9585,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>99602964</v>
+        <v>96160818</v>
       </c>
       <c r="B79" t="n">
-        <v>89392</v>
+        <v>99398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9552,48 +9609,40 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>536202.8739061079</v>
+        <v>536003.402643032</v>
       </c>
       <c r="R79" t="n">
-        <v>6940933.968541252</v>
+        <v>6941248.247549258</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9620,7 +9669,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9630,7 +9679,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -9650,22 +9699,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>99603366</v>
+        <v>96162166</v>
       </c>
       <c r="B80" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9674,48 +9723,40 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>536107.1870499488</v>
+        <v>535960.6863762024</v>
       </c>
       <c r="R80" t="n">
-        <v>6941078.947790911</v>
+        <v>6941274.038162152</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9742,22 +9783,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9772,22 +9813,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Rebecka Andersson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>99602735</v>
+        <v>96161157</v>
       </c>
       <c r="B81" t="n">
-        <v>56540</v>
+        <v>90653</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9796,57 +9837,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>536186.5122288459</v>
+        <v>535935.3716166909</v>
       </c>
       <c r="R81" t="n">
-        <v>6940995.977197126</v>
+        <v>6941311.532777939</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9873,7 +9896,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -9883,7 +9906,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -9903,22 +9926,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>99603180</v>
+        <v>96160107</v>
       </c>
       <c r="B82" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9927,49 +9950,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>536162.6933411224</v>
+        <v>536082.3753292162</v>
       </c>
       <c r="R82" t="n">
-        <v>6940980.515918883</v>
+        <v>6941154.680767823</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9996,7 +10009,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -10006,7 +10019,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10026,22 +10039,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>99601665</v>
+        <v>96163824</v>
       </c>
       <c r="B83" t="n">
-        <v>89392</v>
+        <v>85177</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10050,48 +10063,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>445</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>535618.6045973595</v>
+        <v>536115.1221831418</v>
       </c>
       <c r="R83" t="n">
-        <v>6941858.480904269</v>
+        <v>6941155.037536135</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10118,7 +10124,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10128,7 +10134,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10142,28 +10148,29 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>99601777</v>
+        <v>96183993</v>
       </c>
       <c r="B84" t="n">
-        <v>89673</v>
+        <v>99398</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10172,48 +10179,40 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>658</v>
+        <v>221235</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>535641.7054448389</v>
+        <v>536142.3984466973</v>
       </c>
       <c r="R84" t="n">
-        <v>6941854.584686224</v>
+        <v>6940980.294496668</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10240,7 +10239,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -10250,7 +10249,7 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -10270,22 +10269,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Jessica  Andersson</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Jessica  Andersson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>99601671</v>
+        <v>97022801</v>
       </c>
       <c r="B85" t="n">
-        <v>89673</v>
+        <v>90319</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10294,51 +10293,41 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>658</v>
+        <v>4769</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Ånge, Mpd</t>
+          <t>V om Holkåsen, flygrakan, Mpd</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>535634.6993956352</v>
+        <v>536205.2003063171</v>
       </c>
       <c r="R85" t="n">
-        <v>6941862.798696758</v>
+        <v>6940932.151351886</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10362,7 +10351,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10372,7 +10361,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10388,26 +10377,31 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>gammal kalktallskog, rikörtsstråk</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Henrik Ekvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>99602335</v>
+        <v>99602968</v>
       </c>
       <c r="B86" t="n">
-        <v>98520</v>
+        <v>78596</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10420,26 +10414,26 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10448,17 +10442,16 @@
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>535947.6556516992</v>
+        <v>536206.0271961263</v>
       </c>
       <c r="R86" t="n">
-        <v>6941369.700915223</v>
+        <v>6940940.912759054</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10527,10 +10520,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99601478</v>
+        <v>99602261</v>
       </c>
       <c r="B87" t="n">
-        <v>78503</v>
+        <v>94121</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10539,25 +10532,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6456</v>
+        <v>53</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -10571,16 +10564,17 @@
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>535526.530104674</v>
+        <v>535944.843523746</v>
       </c>
       <c r="R87" t="n">
-        <v>6942015.447163099</v>
+        <v>6941373.815714556</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10649,10 +10643,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100605797</v>
+        <v>99602972</v>
       </c>
       <c r="B88" t="n">
-        <v>56540</v>
+        <v>78569</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10665,50 +10659,44 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>536191.0190425132</v>
+        <v>536200.0963181069</v>
       </c>
       <c r="R88" t="n">
-        <v>6941005.699903722</v>
+        <v>6940934.859499535</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10735,7 +10723,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10745,7 +10733,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -10777,10 +10765,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>100603912</v>
+        <v>99602981</v>
       </c>
       <c r="B89" t="n">
-        <v>101120</v>
+        <v>78527</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10793,26 +10781,26 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>222002</v>
+        <v>229497</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -10821,17 +10809,16 @@
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>535643.5251738867</v>
+        <v>536202.8386812385</v>
       </c>
       <c r="R89" t="n">
-        <v>6941856.906875815</v>
+        <v>6940937.192715558</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10858,7 +10845,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -10868,7 +10855,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -10900,10 +10887,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>100606002</v>
+        <v>99602964</v>
       </c>
       <c r="B90" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10912,49 +10899,48 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>536194.3433394345</v>
+        <v>536202.8739061079</v>
       </c>
       <c r="R90" t="n">
-        <v>6940996.984012141</v>
+        <v>6940933.968541252</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10981,7 +10967,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -10991,7 +10977,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -11023,10 +11009,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>100605154</v>
+        <v>99603366</v>
       </c>
       <c r="B91" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11035,30 +11021,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -11067,17 +11053,16 @@
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>535995.7280730816</v>
+        <v>536107.1870499488</v>
       </c>
       <c r="R91" t="n">
-        <v>6941275.339881935</v>
+        <v>6941078.947790911</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11104,7 +11089,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -11114,7 +11099,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -11146,10 +11131,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>100603557</v>
+        <v>99602735</v>
       </c>
       <c r="B92" t="n">
-        <v>78569</v>
+        <v>56540</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11162,44 +11147,53 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>535487.2991812009</v>
+        <v>536186.5122288459</v>
       </c>
       <c r="R92" t="n">
-        <v>6942061.5367224</v>
+        <v>6940995.977197126</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11226,7 +11220,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -11236,7 +11230,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -11268,10 +11262,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>100603667</v>
+        <v>99603180</v>
       </c>
       <c r="B93" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11280,48 +11274,49 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>535490.0854962033</v>
+        <v>536162.6933411224</v>
       </c>
       <c r="R93" t="n">
-        <v>6942059.724604088</v>
+        <v>6940980.515918883</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11348,7 +11343,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11358,7 +11353,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
@@ -11390,10 +11385,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>100603291</v>
+        <v>99602335</v>
       </c>
       <c r="B94" t="n">
-        <v>101120</v>
+        <v>98520</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11406,26 +11401,26 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -11441,10 +11436,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>535609.5347657365</v>
+        <v>535947.6556516992</v>
       </c>
       <c r="R94" t="n">
-        <v>6941801.278247376</v>
+        <v>6941369.700915223</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11471,7 +11466,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11481,7 +11476,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11513,10 +11508,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>100606092</v>
+        <v>100605797</v>
       </c>
       <c r="B95" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11525,49 +11520,54 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>536163.7012900751</v>
+        <v>536191.0190425132</v>
       </c>
       <c r="R95" t="n">
-        <v>6940972.695945824</v>
+        <v>6941005.699903722</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11636,10 +11636,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>100603307</v>
+        <v>100606002</v>
       </c>
       <c r="B96" t="n">
-        <v>101680</v>
+        <v>96334</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11648,30 +11648,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222412</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -11687,10 +11687,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>535616.4963210796</v>
+        <v>536194.3433394345</v>
       </c>
       <c r="R96" t="n">
-        <v>6941797.208323192</v>
+        <v>6940996.984012141</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>100603721</v>
+        <v>100605154</v>
       </c>
       <c r="B97" t="n">
         <v>96334</v>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>535501.2159817294</v>
+        <v>535995.7280730816</v>
       </c>
       <c r="R97" t="n">
-        <v>6942053.857467398</v>
+        <v>6941275.339881935</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>100603906</v>
+        <v>100606092</v>
       </c>
       <c r="B98" t="n">
         <v>96334</v>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -11933,10 +11933,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>535644.9234148662</v>
+        <v>536163.7012900751</v>
       </c>
       <c r="R98" t="n">
-        <v>6941855.540356078</v>
+        <v>6940972.695945824</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
